--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-28_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-28_valid.xlsx
@@ -6244,7 +6244,7 @@
         <v>6</v>
       </c>
       <c r="N16">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="O16">
         <v>3324</v>
@@ -6358,7 +6358,7 @@
         <v>60</v>
       </c>
       <c r="AZ16">
-        <v>491.4285714285714</v>
+        <v>494.2857142857143</v>
       </c>
       <c r="BA16">
         <v>831</v>
@@ -6472,7 +6472,7 @@
         <v>0.0129366106080207</v>
       </c>
       <c r="CL16">
-        <v>0.5781512605042016</v>
+        <v>0.5815126050420169</v>
       </c>
       <c r="CM16">
         <v>1.03875</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="DA16">
-        <v>0.8362146628706846</v>
+        <v>0.8367129327668783</v>
       </c>
     </row>
     <row r="17" spans="1:105">
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2475</v>
+        <v>2575</v>
       </c>
       <c r="O19">
         <v>102</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="AZ19">
-        <v>863.3720930232558</v>
+        <v>898.2558139534883</v>
       </c>
       <c r="BA19">
         <v>278.1818181818182</v>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="CL19">
-        <v>1.015731874145007</v>
+        <v>1.056771545827633</v>
       </c>
       <c r="CM19">
         <v>0.3477272727272727</v>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="DA19">
-        <v>0.5296477927606893</v>
+        <v>0.5467808595796498</v>
       </c>
     </row>
     <row r="20" spans="1:105">
@@ -27483,7 +27483,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>3082</v>
+        <v>3085</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="AZ83">
-        <v>786.8936170212767</v>
+        <v>787.6595744680851</v>
       </c>
       <c r="BA83">
         <v>0</v>
@@ -27711,7 +27711,7 @@
         <v>0</v>
       </c>
       <c r="CL83">
-        <v>0.9257571964956196</v>
+        <v>0.9266583229036296</v>
       </c>
       <c r="CM83">
         <v>0</v>
@@ -27756,7 +27756,7 @@
         <v>0</v>
       </c>
       <c r="DA83">
-        <v>0.6907091843804236</v>
+        <v>0.6912206933318303</v>
       </c>
     </row>
     <row r="84" spans="1:105">
